--- a/Web, Docker, Git/Docker_Git.xlsx
+++ b/Web, Docker, Git/Docker_Git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GIT_HUB" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>IMAGE</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>https://rogerdudler.github.io/git-guide/index.vi.html</t>
+  </si>
+  <si>
+    <t>https://medium.com/@mbyfieldcameron/docker-on-windows-10-home-edition-c186c538dff3
+https://docs.docker.com/toolbox/toolbox_install_windows/
+https://forums.docker.com/t/installing-docker-on-windows-10-home/11722/5
+https://www.youtube.com/watch?v=KaSJMDo-aPs</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -839,6 +845,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -878,7 +885,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1997,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -2009,7 +2018,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="29" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3595,55 +3604,55 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:15" s="3" customFormat="1">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="33" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="2:15">
       <c r="N9" s="4"/>
@@ -3888,7 +3897,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -3915,7 +3924,7 @@
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="40"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="16" t="s">
         <v>50</v>
       </c>
@@ -3942,7 +3951,7 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -3968,7 +3977,7 @@
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="40"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="19" t="s">
         <v>51</v>
       </c>
@@ -3995,7 +4004,7 @@
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="16" t="s">
         <v>50</v>
       </c>
@@ -4022,7 +4031,7 @@
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="41"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="20" t="s">
         <v>58</v>
       </c>
@@ -4114,10 +4123,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7:D10"/>
+  <dimension ref="D7:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4"/>
@@ -4145,6 +4154,11 @@
         <v>72</v>
       </c>
     </row>
+    <row r="13" spans="4:4" ht="409.6">
+      <c r="D13" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
